--- a/Kelompok 1/KELOMPOK 1 GANTCHART.xlsx
+++ b/Kelompok 1/KELOMPOK 1 GANTCHART.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows10\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D728F355-EEC8-41F3-93AF-2F65AE778B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47214B7A-CC59-4299-A8B8-9085867003BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="109">
   <si>
     <t>TASK OWNER</t>
   </si>
@@ -175,12 +173,204 @@
   </si>
   <si>
     <t>Ghaniy Ihdi, Naufal Rifqi</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Work Breakdown System(WBS)</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Membuat Perth</t>
+  </si>
+  <si>
+    <t>Membuat Process Spesification</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Dokumentasi Analisa &amp; Desain</t>
+  </si>
+  <si>
+    <t>Desain Aplikasi</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Membuat Desain Input</t>
+  </si>
+  <si>
+    <t>Membuat Desain Report</t>
+  </si>
+  <si>
+    <t>Dokumentasi Desain Aplikas</t>
+  </si>
+  <si>
+    <t>Pembuatan Program</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Programming (Back End &amp; Front End)</t>
+  </si>
+  <si>
+    <t>Dokumentasi Program (Back End &amp; Front End)</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Melakukan Test Program</t>
+  </si>
+  <si>
+    <t>Memberikan catatan list perbaikan</t>
+  </si>
+  <si>
+    <t>Dokumentasi Testing Program</t>
+  </si>
+  <si>
+    <t>Instalasi Program</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Setting Infrastruktur dan Software pendukung</t>
+  </si>
+  <si>
+    <t>Instalasi Program ke Client</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Training User / SDM</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>Melakukan Pelatihan</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Dokumetasi</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>Desain Spesifikasi Sistem</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Dokumentasi SOP</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>Dokumentasi Administrasi Proyek</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>Dokumentasi User &amp; Admin Guide + Dokumen Program</t>
+  </si>
+  <si>
+    <t>Dokumentasi Manajemen Proyek</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>Pemeliharaan dan Perbaikan Sistem</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Administrasi</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>Melakukan Administrasi Proyek &amp; Mendokumentasikan</t>
+  </si>
+  <si>
+    <t>Alessandro</t>
+  </si>
+  <si>
+    <t>Rifqi Feliantyto</t>
+  </si>
+  <si>
+    <t>Writer &amp; Tester</t>
+  </si>
+  <si>
+    <t>Ghaniy Ihdi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -675,11 +865,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -906,11 +1096,11 @@
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BP34"/>
+  <dimension ref="B1:BP42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1280,7 @@
       <c r="B5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="63">
         <v>45195</v>
       </c>
       <c r="D5" s="1"/>
@@ -1634,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="63"/>
+      <c r="J10" s="62"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1861,14 +2051,26 @@
       <c r="BP12" s="4"/>
     </row>
     <row r="13" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
+      <c r="B13" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="14">
+        <v>45208</v>
+      </c>
+      <c r="F13" s="14">
+        <v>45215</v>
+      </c>
+      <c r="G13" s="15">
+        <v>7</v>
+      </c>
       <c r="H13" s="16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1881,10 +2083,10 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
@@ -1932,9 +2134,15 @@
       <c r="BP13" s="4"/>
     </row>
     <row r="14" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="B14" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
@@ -2003,9 +2211,15 @@
       <c r="BP14" s="4"/>
     </row>
     <row r="15" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="B15" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
@@ -2074,9 +2288,15 @@
       <c r="BP15" s="4"/>
     </row>
     <row r="16" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="B16" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
@@ -2145,8 +2365,12 @@
       <c r="BP16" s="4"/>
     </row>
     <row r="17" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="37"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="D17" s="26"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -2214,9 +2438,15 @@
       <c r="BP17" s="3"/>
     </row>
     <row r="18" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="37"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
@@ -2285,9 +2515,15 @@
       <c r="BP18" s="4"/>
     </row>
     <row r="19" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="B19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
@@ -2356,9 +2592,15 @@
       <c r="BP19" s="4"/>
     </row>
     <row r="20" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="B20" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
@@ -2427,152 +2669,172 @@
       <c r="BP20" s="4"/>
     </row>
     <row r="21" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="37"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="8"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
-      <c r="BF21" s="4"/>
-      <c r="BG21" s="9"/>
-      <c r="BH21" s="9"/>
-      <c r="BI21" s="9"/>
-      <c r="BJ21" s="9"/>
-      <c r="BK21" s="9"/>
-      <c r="BL21" s="4"/>
-      <c r="BM21" s="4"/>
-      <c r="BN21" s="4"/>
-      <c r="BO21" s="4"/>
-      <c r="BP21" s="4"/>
+      <c r="B21" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
     </row>
     <row r="22" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
-      <c r="BL22" s="3"/>
-      <c r="BM22" s="3"/>
-      <c r="BN22" s="3"/>
-      <c r="BO22" s="3"/>
-      <c r="BP22" s="3"/>
+      <c r="B22" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15">
+        <v>40</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="9"/>
+      <c r="BH22" s="9"/>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="4"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="4"/>
+      <c r="BO22" s="4"/>
+      <c r="BP22" s="4"/>
     </row>
-    <row r="23" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+    <row r="23" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
+      <c r="G23" s="15">
+        <v>5</v>
+      </c>
       <c r="H23" s="16">
         <v>0</v>
       </c>
@@ -2638,80 +2900,88 @@
       <c r="BP23" s="4"/>
     </row>
     <row r="24" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="8"/>
-      <c r="AS24" s="8"/>
-      <c r="AT24" s="8"/>
-      <c r="AU24" s="8"/>
-      <c r="AV24" s="8"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="4"/>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
-      <c r="BE24" s="4"/>
-      <c r="BF24" s="4"/>
-      <c r="BG24" s="9"/>
-      <c r="BH24" s="9"/>
-      <c r="BI24" s="9"/>
-      <c r="BJ24" s="9"/>
-      <c r="BK24" s="9"/>
-      <c r="BL24" s="4"/>
-      <c r="BM24" s="4"/>
-      <c r="BN24" s="4"/>
-      <c r="BO24" s="4"/>
-      <c r="BP24" s="4"/>
+      <c r="B24" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="26"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+      <c r="BC24" s="26"/>
+      <c r="BD24" s="26"/>
+      <c r="BE24" s="26"/>
+      <c r="BF24" s="26"/>
+      <c r="BG24" s="26"/>
+      <c r="BH24" s="26"/>
+      <c r="BI24" s="26"/>
+      <c r="BJ24" s="26"/>
+      <c r="BK24" s="26"/>
+      <c r="BL24" s="26"/>
+      <c r="BM24" s="26"/>
+      <c r="BN24" s="26"/>
+      <c r="BO24" s="26"/>
+      <c r="BP24" s="26"/>
     </row>
     <row r="25" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="B25" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
@@ -2780,9 +3050,15 @@
       <c r="BP25" s="4"/>
     </row>
     <row r="26" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
@@ -2851,9 +3127,15 @@
       <c r="BP26" s="4"/>
     </row>
     <row r="27" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
@@ -2922,149 +3204,165 @@
       <c r="BP27" s="4"/>
     </row>
     <row r="28" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16">
+      <c r="B28" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+      <c r="BO28" s="3"/>
+      <c r="BP28" s="3"/>
+    </row>
+    <row r="29" spans="2:68" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16">
         <v>0</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="8"/>
-      <c r="AS28" s="8"/>
-      <c r="AT28" s="8"/>
-      <c r="AU28" s="8"/>
-      <c r="AV28" s="8"/>
-      <c r="AW28" s="4"/>
-      <c r="AX28" s="4"/>
-      <c r="AY28" s="4"/>
-      <c r="AZ28" s="4"/>
-      <c r="BA28" s="4"/>
-      <c r="BB28" s="4"/>
-      <c r="BC28" s="4"/>
-      <c r="BD28" s="4"/>
-      <c r="BE28" s="4"/>
-      <c r="BF28" s="4"/>
-      <c r="BG28" s="9"/>
-      <c r="BH28" s="9"/>
-      <c r="BI28" s="9"/>
-      <c r="BJ28" s="9"/>
-      <c r="BK28" s="9"/>
-      <c r="BL28" s="4"/>
-      <c r="BM28" s="4"/>
-      <c r="BN28" s="4"/>
-      <c r="BO28" s="4"/>
-      <c r="BP28" s="4"/>
-    </row>
-    <row r="29" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="3"/>
-      <c r="BE29" s="3"/>
-      <c r="BF29" s="3"/>
-      <c r="BG29" s="3"/>
-      <c r="BH29" s="3"/>
-      <c r="BI29" s="3"/>
-      <c r="BJ29" s="3"/>
-      <c r="BK29" s="3"/>
-      <c r="BL29" s="3"/>
-      <c r="BM29" s="3"/>
-      <c r="BN29" s="3"/>
-      <c r="BO29" s="3"/>
-      <c r="BP29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="8"/>
+      <c r="AT29" s="8"/>
+      <c r="AU29" s="8"/>
+      <c r="AV29" s="8"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
+      <c r="BF29" s="4"/>
+      <c r="BG29" s="9"/>
+      <c r="BH29" s="9"/>
+      <c r="BI29" s="9"/>
+      <c r="BJ29" s="9"/>
+      <c r="BK29" s="9"/>
+      <c r="BL29" s="4"/>
+      <c r="BM29" s="4"/>
+      <c r="BN29" s="4"/>
+      <c r="BO29" s="4"/>
+      <c r="BP29" s="4"/>
     </row>
     <row r="30" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
@@ -3133,9 +3431,15 @@
       <c r="BP30" s="4"/>
     </row>
     <row r="31" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
@@ -3203,10 +3507,16 @@
       <c r="BO31" s="4"/>
       <c r="BP31" s="4"/>
     </row>
-    <row r="32" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="37"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+    <row r="32" spans="2:68" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
@@ -3274,81 +3584,767 @@
       <c r="BO32" s="4"/>
       <c r="BP32" s="4"/>
     </row>
-    <row r="33" spans="2:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="37"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16">
+    <row r="33" spans="2:68" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="26"/>
+      <c r="AZ33" s="26"/>
+      <c r="BA33" s="26"/>
+      <c r="BB33" s="26"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="26"/>
+      <c r="BE33" s="26"/>
+      <c r="BF33" s="26"/>
+      <c r="BG33" s="26"/>
+      <c r="BH33" s="26"/>
+      <c r="BI33" s="26"/>
+      <c r="BJ33" s="26"/>
+      <c r="BK33" s="26"/>
+      <c r="BL33" s="26"/>
+      <c r="BM33" s="26"/>
+      <c r="BN33" s="26"/>
+      <c r="BO33" s="26"/>
+      <c r="BP33" s="26"/>
+    </row>
+    <row r="34" spans="2:68" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16">
         <v>0</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
-      <c r="AN33" s="4"/>
-      <c r="AO33" s="4"/>
-      <c r="AP33" s="4"/>
-      <c r="AQ33" s="4"/>
-      <c r="AR33" s="8"/>
-      <c r="AS33" s="8"/>
-      <c r="AT33" s="8"/>
-      <c r="AU33" s="8"/>
-      <c r="AV33" s="8"/>
-      <c r="AW33" s="4"/>
-      <c r="AX33" s="4"/>
-      <c r="AY33" s="4"/>
-      <c r="AZ33" s="4"/>
-      <c r="BA33" s="4"/>
-      <c r="BB33" s="4"/>
-      <c r="BC33" s="4"/>
-      <c r="BD33" s="4"/>
-      <c r="BE33" s="4"/>
-      <c r="BF33" s="4"/>
-      <c r="BG33" s="9"/>
-      <c r="BH33" s="9"/>
-      <c r="BI33" s="9"/>
-      <c r="BJ33" s="9"/>
-      <c r="BK33" s="9"/>
-      <c r="BL33" s="4"/>
-      <c r="BM33" s="4"/>
-      <c r="BN33" s="4"/>
-      <c r="BO33" s="4"/>
-      <c r="BP33" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="8"/>
+      <c r="AS34" s="8"/>
+      <c r="AT34" s="8"/>
+      <c r="AU34" s="8"/>
+      <c r="AV34" s="8"/>
+      <c r="AW34" s="4"/>
+      <c r="AX34" s="4"/>
+      <c r="AY34" s="4"/>
+      <c r="AZ34" s="4"/>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4"/>
+      <c r="BF34" s="4"/>
+      <c r="BG34" s="9"/>
+      <c r="BH34" s="9"/>
+      <c r="BI34" s="9"/>
+      <c r="BJ34" s="9"/>
+      <c r="BK34" s="9"/>
+      <c r="BL34" s="4"/>
+      <c r="BM34" s="4"/>
+      <c r="BN34" s="4"/>
+      <c r="BO34" s="4"/>
+      <c r="BP34" s="4"/>
     </row>
-    <row r="34" spans="2:68" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:68" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="8"/>
+      <c r="AS35" s="8"/>
+      <c r="AT35" s="8"/>
+      <c r="AU35" s="8"/>
+      <c r="AV35" s="8"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="9"/>
+      <c r="BH35" s="9"/>
+      <c r="BI35" s="9"/>
+      <c r="BJ35" s="9"/>
+      <c r="BK35" s="9"/>
+      <c r="BL35" s="4"/>
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="4"/>
+      <c r="BO35" s="4"/>
+      <c r="BP35" s="4"/>
+    </row>
+    <row r="36" spans="2:68" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="8"/>
+      <c r="AS36" s="8"/>
+      <c r="AT36" s="8"/>
+      <c r="AU36" s="8"/>
+      <c r="AV36" s="8"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="9"/>
+      <c r="BH36" s="9"/>
+      <c r="BI36" s="9"/>
+      <c r="BJ36" s="9"/>
+      <c r="BK36" s="9"/>
+      <c r="BL36" s="4"/>
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="4"/>
+      <c r="BO36" s="4"/>
+      <c r="BP36" s="4"/>
+    </row>
+    <row r="37" spans="2:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="8"/>
+      <c r="AU37" s="8"/>
+      <c r="AV37" s="8"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+      <c r="BG37" s="9"/>
+      <c r="BH37" s="9"/>
+      <c r="BI37" s="9"/>
+      <c r="BJ37" s="9"/>
+      <c r="BK37" s="9"/>
+      <c r="BL37" s="4"/>
+      <c r="BM37" s="4"/>
+      <c r="BN37" s="4"/>
+      <c r="BO37" s="4"/>
+      <c r="BP37" s="4"/>
+    </row>
+    <row r="38" spans="2:68" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="8"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="8"/>
+      <c r="AU38" s="8"/>
+      <c r="AV38" s="8"/>
+      <c r="AW38" s="4"/>
+      <c r="AX38" s="4"/>
+      <c r="AY38" s="4"/>
+      <c r="AZ38" s="4"/>
+      <c r="BA38" s="4"/>
+      <c r="BB38" s="4"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="4"/>
+      <c r="BF38" s="4"/>
+      <c r="BG38" s="9"/>
+      <c r="BH38" s="9"/>
+      <c r="BI38" s="9"/>
+      <c r="BJ38" s="9"/>
+      <c r="BK38" s="9"/>
+      <c r="BL38" s="4"/>
+      <c r="BM38" s="4"/>
+      <c r="BN38" s="4"/>
+      <c r="BO38" s="4"/>
+      <c r="BP38" s="4"/>
+    </row>
+    <row r="39" spans="2:68" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="26"/>
+      <c r="AN39" s="26"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="26"/>
+      <c r="AQ39" s="26"/>
+      <c r="AR39" s="26"/>
+      <c r="AS39" s="26"/>
+      <c r="AT39" s="26"/>
+      <c r="AU39" s="26"/>
+      <c r="AV39" s="26"/>
+      <c r="AW39" s="26"/>
+      <c r="AX39" s="26"/>
+      <c r="AY39" s="26"/>
+      <c r="AZ39" s="26"/>
+      <c r="BA39" s="26"/>
+      <c r="BB39" s="26"/>
+      <c r="BC39" s="26"/>
+      <c r="BD39" s="26"/>
+      <c r="BE39" s="26"/>
+      <c r="BF39" s="26"/>
+      <c r="BG39" s="26"/>
+      <c r="BH39" s="26"/>
+      <c r="BI39" s="26"/>
+      <c r="BJ39" s="26"/>
+      <c r="BK39" s="26"/>
+      <c r="BL39" s="26"/>
+      <c r="BM39" s="26"/>
+      <c r="BN39" s="26"/>
+      <c r="BO39" s="26"/>
+      <c r="BP39" s="26"/>
+    </row>
+    <row r="40" spans="2:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="16">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="8"/>
+      <c r="AS40" s="8"/>
+      <c r="AT40" s="8"/>
+      <c r="AU40" s="8"/>
+      <c r="AV40" s="8"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="4"/>
+      <c r="BA40" s="4"/>
+      <c r="BB40" s="4"/>
+      <c r="BC40" s="4"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="4"/>
+      <c r="BF40" s="4"/>
+      <c r="BG40" s="9"/>
+      <c r="BH40" s="9"/>
+      <c r="BI40" s="9"/>
+      <c r="BJ40" s="9"/>
+      <c r="BK40" s="9"/>
+      <c r="BL40" s="4"/>
+      <c r="BM40" s="4"/>
+      <c r="BN40" s="4"/>
+      <c r="BO40" s="4"/>
+      <c r="BP40" s="4"/>
+    </row>
+    <row r="41" spans="2:68" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="26"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="26"/>
+      <c r="AN41" s="26"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="26"/>
+      <c r="AR41" s="26"/>
+      <c r="AS41" s="26"/>
+      <c r="AT41" s="26"/>
+      <c r="AU41" s="26"/>
+      <c r="AV41" s="26"/>
+      <c r="AW41" s="26"/>
+      <c r="AX41" s="26"/>
+      <c r="AY41" s="26"/>
+      <c r="AZ41" s="26"/>
+      <c r="BA41" s="26"/>
+      <c r="BB41" s="26"/>
+      <c r="BC41" s="26"/>
+      <c r="BD41" s="26"/>
+      <c r="BE41" s="26"/>
+      <c r="BF41" s="26"/>
+      <c r="BG41" s="26"/>
+      <c r="BH41" s="26"/>
+      <c r="BI41" s="26"/>
+      <c r="BJ41" s="26"/>
+      <c r="BK41" s="26"/>
+      <c r="BL41" s="26"/>
+      <c r="BM41" s="26"/>
+      <c r="BN41" s="26"/>
+      <c r="BO41" s="26"/>
+      <c r="BP41" s="26"/>
+    </row>
+    <row r="42" spans="2:68" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B42" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="8"/>
+      <c r="AS42" s="8"/>
+      <c r="AT42" s="8"/>
+      <c r="AU42" s="8"/>
+      <c r="AV42" s="8"/>
+      <c r="AW42" s="4"/>
+      <c r="AX42" s="4"/>
+      <c r="AY42" s="4"/>
+      <c r="AZ42" s="4"/>
+      <c r="BA42" s="4"/>
+      <c r="BB42" s="4"/>
+      <c r="BC42" s="4"/>
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="4"/>
+      <c r="BF42" s="4"/>
+      <c r="BG42" s="9"/>
+      <c r="BH42" s="9"/>
+      <c r="BI42" s="9"/>
+      <c r="BJ42" s="9"/>
+      <c r="BK42" s="9"/>
+      <c r="BL42" s="4"/>
+      <c r="BM42" s="4"/>
+      <c r="BN42" s="4"/>
+      <c r="BO42" s="4"/>
+      <c r="BP42" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H30:H33 H9:H28">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H9:H23 H25:H27 H29:H32 H34:H38 H40 H42">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -3379,7 +4375,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H30:H33 H9:H28</xm:sqref>
+          <xm:sqref>H9:H23 H25:H27 H29:H32 H34:H38 H40 H42</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
